--- a/Code/Results/Cases/Case_0_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_101/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.997272155239596</v>
+        <v>4.9144577670714</v>
       </c>
       <c r="D2">
-        <v>5.472833978907177</v>
+        <v>4.192297529291719</v>
       </c>
       <c r="E2">
-        <v>4.911151273567533</v>
+        <v>9.844811837702748</v>
       </c>
       <c r="F2">
-        <v>65.95931448059085</v>
+        <v>63.19838470746566</v>
       </c>
       <c r="G2">
-        <v>2.122817557726827</v>
+        <v>3.786863320881616</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.495608255197351</v>
+        <v>10.18219733259556</v>
       </c>
       <c r="K2">
-        <v>20.60667415329961</v>
+        <v>22.26100550071206</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.74859811982219</v>
+        <v>21.04794975097906</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.481717459264546</v>
+        <v>4.764170278639956</v>
       </c>
       <c r="D3">
-        <v>5.173109659310671</v>
+        <v>4.097106461735187</v>
       </c>
       <c r="E3">
-        <v>4.9713801131861</v>
+        <v>9.876234483678727</v>
       </c>
       <c r="F3">
-        <v>62.74203008664354</v>
+        <v>62.41309039692587</v>
       </c>
       <c r="G3">
-        <v>2.138804899594724</v>
+        <v>3.792010228982551</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.459511744971132</v>
+        <v>10.18904741310702</v>
       </c>
       <c r="K3">
-        <v>19.29158901683309</v>
+        <v>22.11860087170103</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.14143588577677</v>
+        <v>21.05434082282557</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.15124886532626</v>
+        <v>4.671263840977444</v>
       </c>
       <c r="D4">
-        <v>4.985788684540509</v>
+        <v>4.037857382557633</v>
       </c>
       <c r="E4">
-        <v>5.010032041700415</v>
+        <v>9.896681638100556</v>
       </c>
       <c r="F4">
-        <v>60.7500906351581</v>
+        <v>61.93553163132538</v>
       </c>
       <c r="G4">
-        <v>2.148743384658548</v>
+        <v>3.795327324002663</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.439935353496254</v>
+        <v>10.19410777217012</v>
       </c>
       <c r="K4">
-        <v>18.51388850549051</v>
+        <v>22.0395462194871</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.77593977364588</v>
+        <v>21.06474306679536</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.012966698624237</v>
+        <v>4.633311232819747</v>
       </c>
       <c r="D5">
-        <v>4.90860147373911</v>
+        <v>4.013533531416929</v>
       </c>
       <c r="E5">
-        <v>5.026214074152069</v>
+        <v>9.905305167312338</v>
       </c>
       <c r="F5">
-        <v>59.93435009824114</v>
+        <v>61.74223048899783</v>
       </c>
       <c r="G5">
-        <v>2.15283095525395</v>
+        <v>3.796718698615686</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.432570920502857</v>
+        <v>10.19638443781098</v>
       </c>
       <c r="K5">
-        <v>18.19443651003591</v>
+        <v>22.00946802254621</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.62890571013673</v>
+        <v>21.07060864839944</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.989783664962181</v>
+        <v>4.627005637789988</v>
       </c>
       <c r="D6">
-        <v>4.89573271545264</v>
+        <v>4.009484402879812</v>
       </c>
       <c r="E6">
-        <v>5.028927423111395</v>
+        <v>9.90675471427503</v>
       </c>
       <c r="F6">
-        <v>59.79866290044822</v>
+        <v>61.71021621171528</v>
       </c>
       <c r="G6">
-        <v>2.153512146953525</v>
+        <v>3.796952134355596</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.431384059099521</v>
+        <v>10.19677542400773</v>
       </c>
       <c r="K6">
-        <v>18.14124507060937</v>
+        <v>22.00460341923398</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.60460881579918</v>
+        <v>21.07168077531736</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.149398718022875</v>
+        <v>4.670752283715339</v>
       </c>
       <c r="D7">
-        <v>4.98475118263018</v>
+        <v>4.03753003904763</v>
       </c>
       <c r="E7">
-        <v>5.010248519224469</v>
+        <v>9.896796757732879</v>
       </c>
       <c r="F7">
-        <v>60.73910516981792</v>
+        <v>61.93291921670936</v>
       </c>
       <c r="G7">
-        <v>2.148798350520291</v>
+        <v>3.795345927855018</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.439833598822482</v>
+        <v>10.19413760787774</v>
       </c>
       <c r="K7">
-        <v>18.50959025052136</v>
+        <v>22.03913188513224</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.77394897388653</v>
+        <v>21.06481558997431</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.822324739166059</v>
+        <v>4.86280755402375</v>
       </c>
       <c r="D8">
-        <v>5.370150623415965</v>
+        <v>4.159655008604842</v>
       </c>
       <c r="E8">
-        <v>4.931578137260108</v>
+        <v>9.855407605118979</v>
       </c>
       <c r="F8">
-        <v>64.85344279240852</v>
+        <v>62.92674681937657</v>
       </c>
       <c r="G8">
-        <v>2.12830899847286</v>
+        <v>3.788605527360772</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.482601631247331</v>
+        <v>10.18438172693164</v>
       </c>
       <c r="K8">
-        <v>20.11237527782687</v>
+        <v>22.21018354678636</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.53776434653322</v>
+        <v>21.04880772877137</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.037357381486661</v>
+        <v>5.231743559106902</v>
       </c>
       <c r="D9">
-        <v>6.102034245678724</v>
+        <v>4.391855557343565</v>
       </c>
       <c r="E9">
-        <v>4.790021845522254</v>
+        <v>9.783347440774973</v>
       </c>
       <c r="F9">
-        <v>72.79656102014312</v>
+        <v>64.90565391618163</v>
       </c>
       <c r="G9">
-        <v>2.088742236023679</v>
+        <v>3.776623899503989</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.588893363043876</v>
+        <v>10.17204408522666</v>
       </c>
       <c r="K9">
-        <v>23.73761450472784</v>
+        <v>22.61063352669225</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.21954963234782</v>
+        <v>21.06888025457229</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.875778297490889</v>
+        <v>5.494819549326595</v>
       </c>
       <c r="D10">
-        <v>6.630063294545471</v>
+        <v>4.556842178636916</v>
       </c>
       <c r="E10">
-        <v>4.692908387326976</v>
+        <v>9.735887339398598</v>
       </c>
       <c r="F10">
-        <v>78.58515342661606</v>
+        <v>66.36891080180135</v>
       </c>
       <c r="G10">
-        <v>2.059454321356067</v>
+        <v>3.768562826777345</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.683712836464808</v>
+        <v>10.16714173746286</v>
       </c>
       <c r="K10">
-        <v>26.2828938190351</v>
+        <v>22.94221726886203</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.95289815516607</v>
+        <v>21.11502369531758</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.248027627775263</v>
+        <v>5.6121608135658</v>
       </c>
       <c r="D11">
-        <v>6.869851005591257</v>
+        <v>4.630455192632503</v>
       </c>
       <c r="E11">
-        <v>4.649993814298916</v>
+        <v>9.715472652796532</v>
       </c>
       <c r="F11">
-        <v>81.22147113949735</v>
+        <v>67.03470807033651</v>
       </c>
       <c r="G11">
-        <v>2.045916028695703</v>
+        <v>3.765054168326468</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.731316802226302</v>
+        <v>10.16581955791879</v>
       </c>
       <c r="K11">
-        <v>27.4186221061493</v>
+        <v>23.10062660048485</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.72425795053979</v>
+        <v>21.14281498740142</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.387942613270143</v>
+        <v>5.656215143988625</v>
       </c>
       <c r="D12">
-        <v>6.960785039757766</v>
+        <v>4.658106153950816</v>
       </c>
       <c r="E12">
-        <v>4.63390157461689</v>
+        <v>9.707910010980155</v>
       </c>
       <c r="F12">
-        <v>82.22188044060141</v>
+        <v>67.28669134464197</v>
       </c>
       <c r="G12">
-        <v>2.040740919681871</v>
+        <v>3.763748104195266</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.750072149874565</v>
+        <v>10.1654497469535</v>
       </c>
       <c r="K12">
-        <v>27.84638283263174</v>
+        <v>23.16165025157262</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.0144756722928</v>
+        <v>21.15431326202499</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.357851150757977</v>
+        <v>5.646744832211302</v>
       </c>
       <c r="D13">
-        <v>6.941191307591457</v>
+        <v>4.65216128457031</v>
       </c>
       <c r="E13">
-        <v>4.6373606852169</v>
+        <v>9.709531307595517</v>
       </c>
       <c r="F13">
-        <v>82.00629913531863</v>
+        <v>67.2324310014077</v>
       </c>
       <c r="G13">
-        <v>2.041857946983201</v>
+        <v>3.764028386767784</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.745998882136904</v>
+        <v>10.16552356707467</v>
       </c>
       <c r="K13">
-        <v>27.75434390576351</v>
+        <v>23.14846241155679</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.95204499068167</v>
+        <v>21.15179363882195</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.259557783835586</v>
+        <v>5.615793050984279</v>
       </c>
       <c r="D14">
-        <v>6.877328284440335</v>
+        <v>4.632734653255042</v>
       </c>
       <c r="E14">
-        <v>4.648666864647856</v>
+        <v>9.714847109468179</v>
       </c>
       <c r="F14">
-        <v>81.30372206500873</v>
+        <v>67.05544260403715</v>
       </c>
       <c r="G14">
-        <v>2.045491354308947</v>
+        <v>3.764946265988415</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.732844656366904</v>
+        <v>10.1657865087837</v>
       </c>
       <c r="K14">
-        <v>27.45385495676923</v>
+        <v>23.10562656105711</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.74816819900619</v>
+        <v>21.14374145515133</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.199222699893065</v>
+        <v>5.596783419808369</v>
       </c>
       <c r="D15">
-        <v>6.838234036434465</v>
+        <v>4.620805518845087</v>
       </c>
       <c r="E15">
-        <v>4.655612123840233</v>
+        <v>9.718125034122899</v>
       </c>
       <c r="F15">
-        <v>80.87370413839623</v>
+        <v>66.94700914504652</v>
       </c>
       <c r="G15">
-        <v>2.047710027226681</v>
+        <v>3.765511429762724</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.724885063068196</v>
+        <v>10.16596462030515</v>
       </c>
       <c r="K15">
-        <v>27.26952442690432</v>
+        <v>23.07952192069068</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.62306253408381</v>
+        <v>21.1389360193326</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.851288507717099</v>
+        <v>5.48710014206591</v>
       </c>
       <c r="D16">
-        <v>6.61439947295801</v>
+        <v>4.552000882187774</v>
       </c>
       <c r="E16">
-        <v>4.69573649041171</v>
+        <v>9.737245046199506</v>
       </c>
       <c r="F16">
-        <v>78.41305484491625</v>
+        <v>66.32538859641191</v>
       </c>
       <c r="G16">
-        <v>2.060333337101321</v>
+        <v>3.768795296837184</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.680698728068411</v>
+        <v>10.16724644165944</v>
       </c>
       <c r="K16">
-        <v>26.2082958055375</v>
+        <v>22.93201286158294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.90219031412382</v>
+        <v>21.11334403091237</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.635672933334241</v>
+        <v>5.419182113285316</v>
       </c>
       <c r="D17">
-        <v>6.477098728599151</v>
+        <v>4.509409681634002</v>
       </c>
       <c r="E17">
-        <v>4.720659777804383</v>
+        <v>9.749274805362573</v>
       </c>
       <c r="F17">
-        <v>76.90532505528542</v>
+        <v>65.94396814310311</v>
       </c>
       <c r="G17">
-        <v>2.068010881062598</v>
+        <v>3.77085027302094</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.654792862996553</v>
+        <v>10.16826556411054</v>
       </c>
       <c r="K17">
-        <v>25.55215710384858</v>
+        <v>22.84342412193562</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.45594701917424</v>
+        <v>21.09938373941258</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.510776297023828</v>
+        <v>5.379900217365511</v>
       </c>
       <c r="D18">
-        <v>6.398073765221242</v>
+        <v>4.484777761768621</v>
       </c>
       <c r="E18">
-        <v>4.735115443870499</v>
+        <v>9.756304676660326</v>
       </c>
       <c r="F18">
-        <v>76.03827931324196</v>
+        <v>65.72460928349662</v>
       </c>
       <c r="G18">
-        <v>2.072407794621699</v>
+        <v>3.772047157955523</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.640307242107733</v>
+        <v>10.16893717661927</v>
       </c>
       <c r="K18">
-        <v>25.17261836466889</v>
+        <v>22.79318598746571</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.19762417260564</v>
+        <v>21.09199452227774</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.468329911862218</v>
+        <v>5.366564168257733</v>
       </c>
       <c r="D19">
-        <v>6.371303095556065</v>
+        <v>4.476415257665369</v>
       </c>
       <c r="E19">
-        <v>4.740031208995725</v>
+        <v>9.758703909721477</v>
       </c>
       <c r="F19">
-        <v>75.7446980786908</v>
+        <v>65.65034725270762</v>
       </c>
       <c r="G19">
-        <v>2.073893725899734</v>
+        <v>3.77245497022797</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.635471536764453</v>
+        <v>10.16917923781302</v>
       </c>
       <c r="K19">
-        <v>25.04372123202865</v>
+        <v>22.77630067113868</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.10986019350354</v>
+        <v>21.0896027352786</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.658714905410132</v>
+        <v>5.426434925534225</v>
       </c>
       <c r="D20">
-        <v>6.491718905903183</v>
+        <v>4.513957648318687</v>
       </c>
       <c r="E20">
-        <v>4.717994339151311</v>
+        <v>9.747982770301959</v>
       </c>
       <c r="F20">
-        <v>77.06579853325781</v>
+        <v>65.98456968807884</v>
       </c>
       <c r="G20">
-        <v>2.067195675932401</v>
+        <v>3.770629974778616</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.657507091693747</v>
+        <v>10.16814823175157</v>
       </c>
       <c r="K20">
-        <v>25.6222205182134</v>
+        <v>22.85278082857365</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.50361785007148</v>
+        <v>21.10080358238869</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.288454952888676</v>
+        <v>5.624894993676854</v>
       </c>
       <c r="D21">
-        <v>6.896081047367093</v>
+        <v>4.638446957751967</v>
       </c>
       <c r="E21">
-        <v>4.645341866123895</v>
+        <v>9.713281179467696</v>
       </c>
       <c r="F21">
-        <v>81.51001330624024</v>
+        <v>67.10743345559848</v>
       </c>
       <c r="G21">
-        <v>2.044425607988169</v>
+        <v>3.764676051028517</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.736687821776137</v>
+        <v>10.1657057222447</v>
       </c>
       <c r="K21">
-        <v>27.5421707714067</v>
+        <v>23.11818075019472</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.80809746674522</v>
+        <v>21.14608016813253</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.694086593767345</v>
+        <v>5.752366074703046</v>
       </c>
       <c r="D22">
-        <v>7.161251083167404</v>
+        <v>4.718490982629085</v>
       </c>
       <c r="E22">
-        <v>4.598769667697062</v>
+        <v>9.691580191831639</v>
       </c>
       <c r="F22">
-        <v>84.42794711323324</v>
+        <v>67.84040244589049</v>
       </c>
       <c r="G22">
-        <v>2.029250551144076</v>
+        <v>3.760916396130461</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.792738182970067</v>
+        <v>10.16487234564903</v>
       </c>
       <c r="K22">
-        <v>28.78403235934942</v>
+        <v>23.29765697019299</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.65006477653202</v>
+        <v>21.18134763631038</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.478033072438315</v>
+        <v>5.684550395206806</v>
       </c>
       <c r="D23">
-        <v>7.019565448548818</v>
+        <v>4.675895966341789</v>
       </c>
       <c r="E23">
-        <v>4.623551577854831</v>
+        <v>9.70307322222336</v>
       </c>
       <c r="F23">
-        <v>82.86867224034135</v>
+        <v>67.44933708042093</v>
       </c>
       <c r="G23">
-        <v>2.037383456267006</v>
+        <v>3.762911016123896</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.762396308269341</v>
+        <v>10.16524722529628</v>
       </c>
       <c r="K23">
-        <v>28.12207004940985</v>
+        <v>23.20133355213201</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.20143127847096</v>
+        <v>21.16200678790656</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.648300565944771</v>
+        <v>5.423156657385951</v>
       </c>
       <c r="D24">
-        <v>6.485109414512732</v>
+        <v>4.511901964965925</v>
       </c>
       <c r="E24">
-        <v>4.719198986906149</v>
+        <v>9.748566544805621</v>
       </c>
       <c r="F24">
-        <v>76.99324931340169</v>
+        <v>65.96621395139634</v>
       </c>
       <c r="G24">
-        <v>2.067564281878395</v>
+        <v>3.77072952347128</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.656278724308713</v>
+        <v>10.16820101078155</v>
       </c>
       <c r="K24">
-        <v>25.5905521248137</v>
+        <v>22.84854850000971</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.48207142826178</v>
+        <v>21.10015968781772</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.718960863854031</v>
+        <v>5.133117146976083</v>
       </c>
       <c r="D25">
-        <v>5.906193722147767</v>
+        <v>4.329944074636518</v>
       </c>
       <c r="E25">
-        <v>4.827037604082379</v>
+        <v>9.801873988706159</v>
       </c>
       <c r="F25">
-        <v>70.65924260566166</v>
+        <v>64.36801376260887</v>
       </c>
       <c r="G25">
-        <v>2.099435595140008</v>
+        <v>3.779734118251278</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.557449102327268</v>
+        <v>10.17465226873986</v>
       </c>
       <c r="K25">
-        <v>22.77585137465046</v>
+        <v>22.49556035715184</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.66584238225157</v>
+        <v>21.05793385317333</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_101/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.9144577670714</v>
+        <v>6.997272155239702</v>
       </c>
       <c r="D2">
-        <v>4.192297529291719</v>
+        <v>5.472833978907161</v>
       </c>
       <c r="E2">
-        <v>9.844811837702748</v>
+        <v>4.911151273567456</v>
       </c>
       <c r="F2">
-        <v>63.19838470746566</v>
+        <v>65.95931448059071</v>
       </c>
       <c r="G2">
-        <v>3.786863320881616</v>
+        <v>2.122817557726827</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.18219733259556</v>
+        <v>6.495608255197288</v>
       </c>
       <c r="K2">
-        <v>22.26100550071206</v>
+        <v>20.60667415329959</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.04794975097906</v>
+        <v>14.74859811982218</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.764170278639956</v>
+        <v>6.481717459264533</v>
       </c>
       <c r="D3">
-        <v>4.097106461735187</v>
+        <v>5.173109659310661</v>
       </c>
       <c r="E3">
-        <v>9.876234483678727</v>
+        <v>4.971380113186101</v>
       </c>
       <c r="F3">
-        <v>62.41309039692587</v>
+        <v>62.74203008664357</v>
       </c>
       <c r="G3">
-        <v>3.792010228982551</v>
+        <v>2.138804899594994</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.18904741310702</v>
+        <v>6.45951174497112</v>
       </c>
       <c r="K3">
-        <v>22.11860087170103</v>
+        <v>19.29158901683308</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.05434082282557</v>
+        <v>14.14143588577674</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.671263840977444</v>
+        <v>6.151248865326188</v>
       </c>
       <c r="D4">
-        <v>4.037857382557633</v>
+        <v>4.985788684540537</v>
       </c>
       <c r="E4">
-        <v>9.896681638100556</v>
+        <v>5.010032041700472</v>
       </c>
       <c r="F4">
-        <v>61.93553163132538</v>
+        <v>60.75009063515837</v>
       </c>
       <c r="G4">
-        <v>3.795327324002663</v>
+        <v>2.148743384658674</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.19410777217012</v>
+        <v>6.439935353496265</v>
       </c>
       <c r="K4">
-        <v>22.0395462194871</v>
+        <v>18.51388850549048</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.06474306679536</v>
+        <v>13.77593977364582</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.633311232819747</v>
+        <v>6.012966698624234</v>
       </c>
       <c r="D5">
-        <v>4.013533531416929</v>
+        <v>4.908601473739141</v>
       </c>
       <c r="E5">
-        <v>9.905305167312338</v>
+        <v>5.02621407415195</v>
       </c>
       <c r="F5">
-        <v>61.74223048899783</v>
+        <v>59.93435009824098</v>
       </c>
       <c r="G5">
-        <v>3.796718698615686</v>
+        <v>2.152830955254205</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.19638443781098</v>
+        <v>6.43257092050278</v>
       </c>
       <c r="K5">
-        <v>22.00946802254621</v>
+        <v>18.1944365100359</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.07060864839944</v>
+        <v>13.62890571013666</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.627005637789988</v>
+        <v>5.989783664962213</v>
       </c>
       <c r="D6">
-        <v>4.009484402879812</v>
+        <v>4.895732715452597</v>
       </c>
       <c r="E6">
-        <v>9.90675471427503</v>
+        <v>5.028927423111336</v>
       </c>
       <c r="F6">
-        <v>61.71021621171528</v>
+        <v>59.79866290044825</v>
       </c>
       <c r="G6">
-        <v>3.796952134355596</v>
+        <v>2.15351214695406</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.19677542400773</v>
+        <v>6.431384059099471</v>
       </c>
       <c r="K6">
-        <v>22.00460341923398</v>
+        <v>18.14124507060936</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.07168077531736</v>
+        <v>13.60460881579917</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.670752283715339</v>
+        <v>6.149398718022804</v>
       </c>
       <c r="D7">
-        <v>4.03753003904763</v>
+        <v>4.984751182630206</v>
       </c>
       <c r="E7">
-        <v>9.896796757732879</v>
+        <v>5.010248519224538</v>
       </c>
       <c r="F7">
-        <v>61.93291921670936</v>
+        <v>60.73910516981793</v>
       </c>
       <c r="G7">
-        <v>3.795345927855018</v>
+        <v>2.148798350519901</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.19413760787774</v>
+        <v>6.439833598822571</v>
       </c>
       <c r="K7">
-        <v>22.03913188513224</v>
+        <v>18.50959025052132</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.06481558997431</v>
+        <v>13.77394897388649</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.86280755402375</v>
+        <v>6.822324739166059</v>
       </c>
       <c r="D8">
-        <v>4.159655008604842</v>
+        <v>5.370150623415936</v>
       </c>
       <c r="E8">
-        <v>9.855407605118979</v>
+        <v>4.931578137260169</v>
       </c>
       <c r="F8">
-        <v>62.92674681937657</v>
+        <v>64.85344279240867</v>
       </c>
       <c r="G8">
-        <v>3.788605527360772</v>
+        <v>2.12830899847313</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.18438172693164</v>
+        <v>6.482601631247385</v>
       </c>
       <c r="K8">
-        <v>22.21018354678636</v>
+        <v>20.11237527782687</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.04880772877137</v>
+        <v>14.53776434653316</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.231743559106902</v>
+        <v>8.037357381486567</v>
       </c>
       <c r="D9">
-        <v>4.391855557343565</v>
+        <v>6.102034245678676</v>
       </c>
       <c r="E9">
-        <v>9.783347440774973</v>
+        <v>4.790021845522266</v>
       </c>
       <c r="F9">
-        <v>64.90565391618163</v>
+        <v>72.79656102014303</v>
       </c>
       <c r="G9">
-        <v>3.776623899503989</v>
+        <v>2.088742236023797</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.17204408522666</v>
+        <v>6.588893363043853</v>
       </c>
       <c r="K9">
-        <v>22.61063352669225</v>
+        <v>23.7376145047279</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.06888025457229</v>
+        <v>16.21954963234786</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.494819549326595</v>
+        <v>8.875778297490807</v>
       </c>
       <c r="D10">
-        <v>4.556842178636916</v>
+        <v>6.630063294545375</v>
       </c>
       <c r="E10">
-        <v>9.735887339398598</v>
+        <v>4.692908387326989</v>
       </c>
       <c r="F10">
-        <v>66.36891080180135</v>
+        <v>78.58515342661526</v>
       </c>
       <c r="G10">
-        <v>3.768562826777345</v>
+        <v>2.059454321355946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.16714173746286</v>
+        <v>6.68371283646483</v>
       </c>
       <c r="K10">
-        <v>22.94221726886203</v>
+        <v>26.28289381903488</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.11502369531758</v>
+        <v>17.9528981551659</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.6121608135658</v>
+        <v>9.248027627775306</v>
       </c>
       <c r="D11">
-        <v>4.630455192632503</v>
+        <v>6.86985100559124</v>
       </c>
       <c r="E11">
-        <v>9.715472652796532</v>
+        <v>4.649993814298929</v>
       </c>
       <c r="F11">
-        <v>67.03470807033651</v>
+        <v>81.22147113949775</v>
       </c>
       <c r="G11">
-        <v>3.765054168326468</v>
+        <v>2.045916028695859</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.16581955791879</v>
+        <v>6.731316802226245</v>
       </c>
       <c r="K11">
-        <v>23.10062660048485</v>
+        <v>27.41862210614937</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.14281498740142</v>
+        <v>18.72425795053988</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.656215143988625</v>
+        <v>9.387942613270253</v>
       </c>
       <c r="D12">
-        <v>4.658106153950816</v>
+        <v>6.960785039757759</v>
       </c>
       <c r="E12">
-        <v>9.707910010980155</v>
+        <v>4.633901574617074</v>
       </c>
       <c r="F12">
-        <v>67.28669134464197</v>
+        <v>82.22188044060161</v>
       </c>
       <c r="G12">
-        <v>3.763748104195266</v>
+        <v>2.040740919682005</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.1654497469535</v>
+        <v>6.75007214987456</v>
       </c>
       <c r="K12">
-        <v>23.16165025157262</v>
+        <v>27.84638283263179</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.15431326202499</v>
+        <v>19.01447567229282</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.646744832211302</v>
+        <v>9.357851150758034</v>
       </c>
       <c r="D13">
-        <v>4.65216128457031</v>
+        <v>6.941191307591499</v>
       </c>
       <c r="E13">
-        <v>9.709531307595517</v>
+        <v>4.6373606852169</v>
       </c>
       <c r="F13">
-        <v>67.2324310014077</v>
+        <v>82.00629913531886</v>
       </c>
       <c r="G13">
-        <v>3.764028386767784</v>
+        <v>2.04185794698308</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.16552356707467</v>
+        <v>6.745998882136904</v>
       </c>
       <c r="K13">
-        <v>23.14846241155679</v>
+        <v>27.75434390576346</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.15179363882195</v>
+        <v>18.95204499068165</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.615793050984279</v>
+        <v>9.25955778383558</v>
       </c>
       <c r="D14">
-        <v>4.632734653255042</v>
+        <v>6.877328284440409</v>
       </c>
       <c r="E14">
-        <v>9.714847109468179</v>
+        <v>4.648666864647843</v>
       </c>
       <c r="F14">
-        <v>67.05544260403715</v>
+        <v>81.30372206500917</v>
       </c>
       <c r="G14">
-        <v>3.764946265988415</v>
+        <v>2.045491354308818</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.1657865087837</v>
+        <v>6.732844656366924</v>
       </c>
       <c r="K14">
-        <v>23.10562656105711</v>
+        <v>27.45385495676939</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.14374145515133</v>
+        <v>18.74816819900628</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.596783419808369</v>
+        <v>9.199222699893093</v>
       </c>
       <c r="D15">
-        <v>4.620805518845087</v>
+        <v>6.838234036434598</v>
       </c>
       <c r="E15">
-        <v>9.718125034122899</v>
+        <v>4.65561212384021</v>
       </c>
       <c r="F15">
-        <v>66.94700914504652</v>
+        <v>80.8737041383966</v>
       </c>
       <c r="G15">
-        <v>3.765511429762724</v>
+        <v>2.047710027226551</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.16596462030515</v>
+        <v>6.724885063068229</v>
       </c>
       <c r="K15">
-        <v>23.07952192069068</v>
+        <v>27.26952442690447</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.1389360193326</v>
+        <v>18.62306253408385</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.48710014206591</v>
+        <v>8.851288507717166</v>
       </c>
       <c r="D16">
-        <v>4.552000882187774</v>
+        <v>6.614399472958034</v>
       </c>
       <c r="E16">
-        <v>9.737245046199506</v>
+        <v>4.695736490411702</v>
       </c>
       <c r="F16">
-        <v>66.32538859641191</v>
+        <v>78.4130548449162</v>
       </c>
       <c r="G16">
-        <v>3.768795296837184</v>
+        <v>2.060333337101321</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.16724644165944</v>
+        <v>6.680698728068396</v>
       </c>
       <c r="K16">
-        <v>22.93201286158294</v>
+        <v>26.20829580553758</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.11334403091237</v>
+        <v>17.90219031412385</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.419182113285316</v>
+        <v>8.635672933334366</v>
       </c>
       <c r="D17">
-        <v>4.509409681634002</v>
+        <v>6.47709872859909</v>
       </c>
       <c r="E17">
-        <v>9.749274805362573</v>
+        <v>4.720659777804408</v>
       </c>
       <c r="F17">
-        <v>65.94396814310311</v>
+        <v>76.90532505528542</v>
       </c>
       <c r="G17">
-        <v>3.77085027302094</v>
+        <v>2.068010881062737</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.16826556411054</v>
+        <v>6.654792862996514</v>
       </c>
       <c r="K17">
-        <v>22.84342412193562</v>
+        <v>25.55215710384849</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.09938373941258</v>
+        <v>17.45594701917422</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.379900217365511</v>
+        <v>8.510776297023749</v>
       </c>
       <c r="D18">
-        <v>4.484777761768621</v>
+        <v>6.398073765221274</v>
       </c>
       <c r="E18">
-        <v>9.756304676660326</v>
+        <v>4.735115443870316</v>
       </c>
       <c r="F18">
-        <v>65.72460928349662</v>
+        <v>76.03827931324193</v>
       </c>
       <c r="G18">
-        <v>3.772047157955523</v>
+        <v>2.072407794621699</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.16893717661927</v>
+        <v>6.640307242107717</v>
       </c>
       <c r="K18">
-        <v>22.79318598746571</v>
+        <v>25.17261836466886</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.09199452227774</v>
+        <v>17.19762417260566</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.366564168257733</v>
+        <v>8.468329911862201</v>
       </c>
       <c r="D19">
-        <v>4.476415257665369</v>
+        <v>6.371303095556197</v>
       </c>
       <c r="E19">
-        <v>9.758703909721477</v>
+        <v>4.740031208995696</v>
       </c>
       <c r="F19">
-        <v>65.65034725270762</v>
+        <v>75.74469807869116</v>
       </c>
       <c r="G19">
-        <v>3.77245497022797</v>
+        <v>2.07389372589947</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.16917923781302</v>
+        <v>6.63547153676452</v>
       </c>
       <c r="K19">
-        <v>22.77630067113868</v>
+        <v>25.04372123202858</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.0896027352786</v>
+        <v>17.10986019350349</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.426434925534225</v>
+        <v>8.658714905410354</v>
       </c>
       <c r="D20">
-        <v>4.513957648318687</v>
+        <v>6.491718905903218</v>
       </c>
       <c r="E20">
-        <v>9.747982770301959</v>
+        <v>4.717994339151199</v>
       </c>
       <c r="F20">
-        <v>65.98456968807884</v>
+        <v>77.065798533258</v>
       </c>
       <c r="G20">
-        <v>3.770629974778616</v>
+        <v>2.067195675932259</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.16814823175157</v>
+        <v>6.657507091693764</v>
       </c>
       <c r="K20">
-        <v>22.85278082857365</v>
+        <v>25.62222051821339</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.10080358238869</v>
+        <v>17.50361785007146</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.624894993676854</v>
+        <v>9.288454952888635</v>
       </c>
       <c r="D21">
-        <v>4.638446957751967</v>
+        <v>6.896081047367152</v>
       </c>
       <c r="E21">
-        <v>9.713281179467696</v>
+        <v>4.645341866123885</v>
       </c>
       <c r="F21">
-        <v>67.10743345559848</v>
+        <v>81.51001330624025</v>
       </c>
       <c r="G21">
-        <v>3.764676051028517</v>
+        <v>2.044425607988022</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.1657057222447</v>
+        <v>6.736687821776203</v>
       </c>
       <c r="K21">
-        <v>23.11818075019472</v>
+        <v>27.54217077140666</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.14608016813253</v>
+        <v>18.8080974667452</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.752366074703046</v>
+        <v>9.694086593767516</v>
       </c>
       <c r="D22">
-        <v>4.718490982629085</v>
+        <v>7.161251083167492</v>
       </c>
       <c r="E22">
-        <v>9.691580191831639</v>
+        <v>4.59876966769708</v>
       </c>
       <c r="F22">
-        <v>67.84040244589049</v>
+        <v>84.42794711323354</v>
       </c>
       <c r="G22">
-        <v>3.760916396130461</v>
+        <v>2.029250551144085</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.16487234564903</v>
+        <v>6.792738182970094</v>
       </c>
       <c r="K22">
-        <v>23.29765697019299</v>
+        <v>28.7840323593495</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.18134763631038</v>
+        <v>19.65006477653201</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.684550395206806</v>
+        <v>9.478033072438343</v>
       </c>
       <c r="D23">
-        <v>4.675895966341789</v>
+        <v>7.019565448548723</v>
       </c>
       <c r="E23">
-        <v>9.70307322222336</v>
+        <v>4.623551577854892</v>
       </c>
       <c r="F23">
-        <v>67.44933708042093</v>
+        <v>82.86867224034123</v>
       </c>
       <c r="G23">
-        <v>3.762911016123896</v>
+        <v>2.037383456267043</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.16524722529628</v>
+        <v>6.762396308269361</v>
       </c>
       <c r="K23">
-        <v>23.20133355213201</v>
+        <v>28.12207004940969</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.16200678790656</v>
+        <v>19.20143127847093</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.423156657385951</v>
+        <v>8.648300565944798</v>
       </c>
       <c r="D24">
-        <v>4.511901964965925</v>
+        <v>6.485109414512721</v>
       </c>
       <c r="E24">
-        <v>9.748566544805621</v>
+        <v>4.719198986906141</v>
       </c>
       <c r="F24">
-        <v>65.96621395139634</v>
+        <v>76.99324931340151</v>
       </c>
       <c r="G24">
-        <v>3.77072952347128</v>
+        <v>2.067564281878529</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.16820101078155</v>
+        <v>6.656278724308757</v>
       </c>
       <c r="K24">
-        <v>22.84854850000971</v>
+        <v>25.59055212481374</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.10015968781772</v>
+        <v>17.48207142826178</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.133117146976083</v>
+        <v>7.718960863854112</v>
       </c>
       <c r="D25">
-        <v>4.329944074636518</v>
+        <v>5.906193722147735</v>
       </c>
       <c r="E25">
-        <v>9.801873988706159</v>
+        <v>4.827037604082335</v>
       </c>
       <c r="F25">
-        <v>64.36801376260887</v>
+        <v>70.65924260566103</v>
       </c>
       <c r="G25">
-        <v>3.779734118251278</v>
+        <v>2.099435595139985</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.17465226873986</v>
+        <v>6.557449102327261</v>
       </c>
       <c r="K25">
-        <v>22.49556035715184</v>
+        <v>22.77585137465031</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.05793385317333</v>
+        <v>15.66584238225164</v>
       </c>
       <c r="N25">
         <v>0</v>
